--- a/Assets/Dialogs/DialogDB_Pumping.xlsx
+++ b/Assets/Dialogs/DialogDB_Pumping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LGHNH_Project\Assets\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4d1236af1f427cd/Documents/GitHub/LGHNH_Project/Assets/Dialogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF46474-96B0-46E4-BB1A-23F9CBD322E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2BF46474-96B0-46E4-BB1A-23F9CBD322E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E70D4283-D337-4F23-A561-BB2FAF8D04E2}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="10455" windowWidth="24240" windowHeight="13020" xr2:uid="{BE8A5178-FA9C-438F-985D-F50BDCD61C65}"/>
+    <workbookView xWindow="38280" yWindow="10350" windowWidth="24240" windowHeight="13020" xr2:uid="{BE8A5178-FA9C-438F-985D-F50BDCD61C65}"/>
   </bookViews>
   <sheets>
     <sheet name="pumping" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>부디 몸조리 잘 하시고, 꼭 다시 뵐 수 있기를!</t>
   </si>
@@ -74,9 +74,6 @@
     <t>(폭포가 상냥하게 여행아이와 리비를 삼킨다)</t>
   </si>
   <si>
-    <t>내래이션</t>
-  </si>
-  <si>
     <t>아, 안내라 함은..?</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>좋았어, 재료는 전부 모았고.</t>
-  </si>
-  <si>
-    <t>완료</t>
   </si>
   <si>
     <t>맡겨주세요.</t>
@@ -250,6 +244,18 @@
   <si>
     <t>순번</t>
   </si>
+  <si>
+    <t>수락(자동)</t>
+  </si>
+  <si>
+    <t>완료(자동)</t>
+  </si>
+  <si>
+    <t>카메라 이동</t>
+  </si>
+  <si>
+    <t>호수에게 카메라 이동</t>
+  </si>
 </sst>
 </file>
 
@@ -315,7 +321,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +344,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -373,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -424,6 +436,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,7 +767,7 @@
   <dimension ref="A1:H1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15" customHeight="1"/>
@@ -761,28 +785,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1">
@@ -790,13 +814,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -808,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
@@ -825,10 +849,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
@@ -842,11 +866,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
@@ -866,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1">
@@ -880,16 +904,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
       <c r="A7" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -898,16 +922,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
       <c r="A8" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -916,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
       <c r="A9" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -937,15 +961,15 @@
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
       <c r="A10" s="5">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -960,12 +984,12 @@
         <v>8</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
       <c r="A11" s="5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -974,19 +998,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
       <c r="A12" s="5">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
         <v>1</v>
@@ -998,15 +1022,15 @@
         <v>4</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1">
       <c r="A13" s="5">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="8"/>
       <c r="E13" s="5">
         <v>1</v>
@@ -1018,17 +1042,17 @@
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
       <c r="A14" s="5">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="5" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E14" s="5">
         <v>2</v>
@@ -1040,33 +1064,33 @@
         <v>4</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
       <c r="A15" s="5">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
         <v>2</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1">
       <c r="A16" s="5">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B16" s="16"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
         <v>2</v>
@@ -1078,15 +1102,15 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1">
       <c r="A17" s="5">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
         <v>2</v>
@@ -1098,136 +1122,134 @@
         <v>4</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1">
       <c r="A18" s="5">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>42</v>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1">
       <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
       <c r="E19" s="5">
         <v>3</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1">
       <c r="A20" s="5">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B20" s="16"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="5">
         <v>3</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1">
       <c r="A21" s="5">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B21" s="16"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="16"/>
       <c r="E21" s="5">
         <v>3</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="F21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>38</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1">
       <c r="A22" s="5">
-        <v>47</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5">
         <v>3</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1">
       <c r="A23" s="5">
-        <v>48</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="5">
         <v>3</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="F23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>36</v>
+      <c r="H23" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" customHeight="1">
       <c r="A24" s="5">
-        <v>49</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="3"/>
       <c r="E24" s="5">
         <v>3</v>
@@ -1235,99 +1257,99 @@
       <c r="F24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1">
       <c r="A25" s="5">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="3"/>
       <c r="E25" s="5">
         <v>3</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1">
       <c r="A26" s="5">
-        <v>51</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="3"/>
       <c r="E26" s="5">
         <v>3</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1">
       <c r="A27" s="5">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3"/>
       <c r="E27" s="5">
         <v>3</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1">
       <c r="A28" s="5">
-        <v>53</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="3"/>
       <c r="E28" s="5">
         <v>3</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1">
       <c r="A29" s="5">
-        <v>54</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="3"/>
       <c r="E29" s="5">
         <v>3</v>
@@ -1335,109 +1357,107 @@
       <c r="F29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>1</v>
+      <c r="G29" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="5">
-        <v>55</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="3"/>
       <c r="E30" s="5">
         <v>3</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="5">
-        <v>56</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="3"/>
       <c r="E31" s="5">
         <v>3</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
       <c r="A32" s="5">
-        <v>57</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="3"/>
       <c r="E32" s="5">
         <v>3</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" customHeight="1">
       <c r="A33" s="5">
-        <v>58</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="3"/>
       <c r="E33" s="5">
         <v>3</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1">
       <c r="A34" s="5">
-        <v>59</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="13">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="5">
+        <v>3</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -1446,18 +1466,20 @@
     </row>
     <row r="35" spans="1:8" ht="16.5" customHeight="1">
       <c r="A35" s="5">
-        <v>60</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E35" s="13">
         <v>4</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -1466,18 +1488,18 @@
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1">
       <c r="A36" s="5">
-        <v>61</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="3"/>
       <c r="E36" s="13">
         <v>4</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -1486,10 +1508,10 @@
     </row>
     <row r="37" spans="1:8" ht="16.5" customHeight="1">
       <c r="A37" s="5">
-        <v>62</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="3"/>
       <c r="E37" s="13">
         <v>4</v>
@@ -1497,7 +1519,7 @@
       <c r="F37" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H37" s="4" t="s">
@@ -1506,19 +1528,19 @@
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1">
       <c r="A38" s="5">
-        <v>63</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="3"/>
       <c r="E38" s="13">
         <v>4</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>20</v>
@@ -1526,18 +1548,18 @@
     </row>
     <row r="39" spans="1:8" ht="16.5" customHeight="1">
       <c r="A39" s="5">
-        <v>64</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="3"/>
       <c r="E39" s="13">
         <v>4</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -1546,18 +1568,18 @@
     </row>
     <row r="40" spans="1:8" ht="16.5" customHeight="1">
       <c r="A40" s="5">
-        <v>65</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="3"/>
       <c r="E40" s="13">
         <v>4</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -1566,19 +1588,19 @@
     </row>
     <row r="41" spans="1:8" ht="16.5" customHeight="1">
       <c r="A41" s="5">
-        <v>66</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="3"/>
       <c r="E41" s="13">
         <v>4</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>17</v>
@@ -1586,58 +1608,58 @@
     </row>
     <row r="42" spans="1:8" ht="16.5" customHeight="1">
       <c r="A42" s="5">
-        <v>67</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="3"/>
       <c r="E42" s="13">
         <v>4</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1">
       <c r="A43" s="5">
-        <v>68</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="3"/>
       <c r="E43" s="13">
         <v>4</v>
       </c>
       <c r="F43" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" customHeight="1">
       <c r="A44" s="5">
-        <v>69</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="3"/>
       <c r="E44" s="13">
         <v>4</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -1646,67 +1668,66 @@
     </row>
     <row r="45" spans="1:8" ht="16.5" customHeight="1">
       <c r="A45" s="5">
-        <v>70</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="3"/>
       <c r="E45" s="13">
         <v>4</v>
       </c>
       <c r="F45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1">
       <c r="A46" s="5">
-        <v>71</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="3"/>
       <c r="E46" s="13">
         <v>4</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14"/>
       <c r="H46" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.5" customHeight="1">
       <c r="A47" s="5">
-        <v>72</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="3"/>
       <c r="E47" s="13">
         <v>4</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.5" customHeight="1">
       <c r="A48" s="5">
-        <v>73</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="3"/>
       <c r="E48" s="13">
         <v>4</v>
@@ -1714,39 +1735,39 @@
       <c r="F48" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>1</v>
+      <c r="G48" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="5">
-        <v>74</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="3"/>
       <c r="E49" s="13">
         <v>4</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.5" customHeight="1">
       <c r="A50" s="5">
-        <v>75</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="3"/>
       <c r="E50" s="13">
         <v>4</v>
@@ -1754,19 +1775,32 @@
       <c r="F50" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="13">
+        <v>4</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" customHeight="1">
       <c r="B52" s="3"/>
@@ -8472,9 +8506,10 @@
       <c r="F1010" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="B2:B21"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B51"/>
+    <mergeCell ref="C2:C17"/>
+    <mergeCell ref="C19:C51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Assets/Dialogs/DialogDB_Pumping.xlsx
+++ b/Assets/Dialogs/DialogDB_Pumping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\230831_2146\LGHNH_Project\Assets\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\230913_1622\LGHNH_Project\Assets\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D8C85C-750F-4636-9133-AB88991258B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB84BE0-6332-4E38-A277-73C0EF6C8B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BE8A5178-FA9C-438F-985D-F50BDCD61C65}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="19200" windowHeight="11170" xr2:uid="{BE8A5178-FA9C-438F-985D-F50BDCD61C65}"/>
   </bookViews>
   <sheets>
     <sheet name="pumping" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="76">
   <si>
     <t>부디 몸조리 잘 하시고, 꼭 다시 뵐 수 있기를!</t>
-  </si>
-  <si>
-    <t>기쁨</t>
   </si>
   <si>
     <t>가울</t>
   </si>
   <si>
     <t>링크 솔트 동굴은 프리미 종족들의 영역입니다.</t>
-  </si>
-  <si>
-    <t>기본</t>
   </si>
   <si>
     <t>그럼 촌장님, 이만 가보겠습니다.</t>
@@ -60,9 +54,6 @@
   </si>
   <si>
     <t>걸어서 갈 거리가 아니라고. 조금만 참아</t>
-  </si>
-  <si>
-    <t>우울</t>
   </si>
   <si>
     <t>으아악! 물은 싫어, 제발, 제발 걸어서 갈 테니까!!</t>
@@ -141,9 +132,6 @@
   </si>
   <si>
     <t>윽, 하지만 폭포 여기저기에 오염이 심한 상태야</t>
-  </si>
-  <si>
-    <t>피곤</t>
   </si>
   <si>
     <t>세상에, 폭포가 말을 하잖아?</t>
@@ -257,7 +245,31 @@
     <t>물론일세.</t>
   </si>
   <si>
-    <t>완성물</t>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,18 +466,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -492,6 +492,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8F31E1-8D66-4525-B7AA-CABB2EE3D2EE}">
-  <dimension ref="A1:H1010"/>
+  <dimension ref="A1:I1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="15" customHeight="1"/>
@@ -822,1114 +834,1196 @@
     <col min="6" max="6" width="14.1640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="115.5" style="1" customWidth="1"/>
-    <col min="9" max="26" width="8" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="9" customWidth="1"/>
+    <col min="10" max="26" width="8" style="1" customWidth="1"/>
     <col min="27" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" ht="35.25" customHeight="1" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+        <v>54</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>56</v>
+      <c r="B2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="16">
+        <v>62</v>
+      </c>
+      <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="18">
+      <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="18">
+      <c r="E9" s="14">
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="18">
+      <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="18">
+      <c r="E11" s="14">
         <v>1</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="I11" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="18">
+      <c r="E12" s="14">
         <v>1</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="18">
+      <c r="E13" s="14">
         <v>1</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="18">
+        <v>63</v>
+      </c>
+      <c r="E14" s="14">
         <v>2</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="18">
+      <c r="E15" s="14">
         <v>2</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="18">
+      <c r="E16" s="14">
         <v>2</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="18">
+      <c r="E17" s="14">
         <v>2</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+        <v>64</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="15" t="s">
-        <v>57</v>
+      <c r="B19" s="22"/>
+      <c r="C19" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="18">
+        <v>34</v>
+      </c>
+      <c r="E19" s="14">
         <v>3</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="18">
+      <c r="E20" s="14">
         <v>3</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="F20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="E21" s="18">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="E21" s="14">
         <v>3</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="18">
+      <c r="E22" s="14">
         <v>3</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="18">
+      <c r="E23" s="14">
         <v>3</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="18">
+      <c r="E24" s="14">
         <v>3</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="21" t="s">
+      <c r="F24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="G24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="18">
+      <c r="E25" s="14">
         <v>3</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="21" t="s">
+      <c r="F25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="G25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="18">
+      <c r="E26" s="14">
         <v>3</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="18">
+      <c r="E27" s="14">
         <v>3</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="18">
+      <c r="E28" s="14">
         <v>3</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="18">
+      <c r="E29" s="14">
         <v>3</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="21" t="s">
+      <c r="F29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="G29" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="18">
+      <c r="E30" s="14">
         <v>3</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="18">
+      <c r="E31" s="14">
         <v>3</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="18">
+      <c r="E32" s="14">
         <v>3</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="18">
+      <c r="E33" s="14">
         <v>3</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="18">
+      <c r="E34" s="14">
         <v>3</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="21" t="s">
+      <c r="F34" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="G34" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="22">
+        <v>63</v>
+      </c>
+      <c r="E35" s="18">
         <v>4</v>
       </c>
-      <c r="F35" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="22">
+      <c r="E36" s="18">
         <v>4</v>
       </c>
-      <c r="F36" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="22">
+      <c r="E37" s="18">
         <v>4</v>
       </c>
-      <c r="F37" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="22">
+      <c r="E38" s="18">
         <v>4</v>
       </c>
-      <c r="F38" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="22">
+      <c r="E39" s="18">
         <v>4</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="22">
+      <c r="E40" s="18">
         <v>4</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="I40" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="22">
+      <c r="E41" s="18">
         <v>4</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F41" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="22">
+      <c r="E42" s="18">
         <v>4</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="22">
+      <c r="E43" s="18">
         <v>4</v>
       </c>
-      <c r="F43" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="22">
+      <c r="E44" s="18">
         <v>4</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="22">
+      <c r="E45" s="18">
         <v>4</v>
       </c>
-      <c r="F45" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F45" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="22">
+      <c r="E46" s="18">
         <v>4</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F46" s="15"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="22">
+      <c r="E47" s="18">
         <v>4</v>
       </c>
-      <c r="F47" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="22">
+      <c r="E48" s="18">
         <v>4</v>
       </c>
-      <c r="F48" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F48" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="22">
+      <c r="E49" s="18">
         <v>4</v>
       </c>
-      <c r="F49" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="F49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="22">
+      <c r="E50" s="18">
         <v>4</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="I50" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="22">
+      <c r="E51" s="18">
         <v>4</v>
       </c>
-      <c r="F51" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G51" s="21" t="s">
+      <c r="F51" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H51" s="21" t="s">
+      <c r="G51" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1">
+      <c r="I51" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" customHeight="1">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="2"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5" customHeight="1">
+    <row r="53" spans="1:9" ht="16.5" customHeight="1">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="2"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5" customHeight="1">
+    <row r="54" spans="1:9" ht="16.5" customHeight="1">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="2"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:8" ht="16.5" customHeight="1">
+    <row r="55" spans="1:9" ht="16.5" customHeight="1">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="2"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:8" ht="16.5" customHeight="1">
+    <row r="56" spans="1:9" ht="16.5" customHeight="1">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="2"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5" customHeight="1">
+    <row r="57" spans="1:9" ht="16.5" customHeight="1">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="2"/>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5" customHeight="1">
+    <row r="58" spans="1:9" ht="16.5" customHeight="1">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="2"/>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" customHeight="1">
+    <row r="59" spans="1:9" ht="16.5" customHeight="1">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="2"/>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="1:8" ht="16.5" customHeight="1">
+    <row r="60" spans="1:9" ht="16.5" customHeight="1">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="2"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:8" ht="16.5" customHeight="1">
+    <row r="61" spans="1:9" ht="16.5" customHeight="1">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="2"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:8" ht="16.5" customHeight="1">
+    <row r="62" spans="1:9" ht="16.5" customHeight="1">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:8" ht="16.5" customHeight="1">
+    <row r="63" spans="1:9" ht="16.5" customHeight="1">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="2"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="1:8" ht="16.5" customHeight="1">
+    <row r="64" spans="1:9" ht="16.5" customHeight="1">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
